--- a/PAGER-COV2/COV2_VIRUS_GENE_TO_VIRUS_PROTEIN.xlsx
+++ b/PAGER-COV2/COV2_VIRUS_GENE_TO_VIRUS_PROTEIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naruto/Desktop/PAGER-COV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62702FE8-EA67-0642-9032-AFED00401DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBAB0AB-ED4E-D64B-B0DD-EFCDCDEB739E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6600" yWindow="920" windowWidth="20600" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
